--- a/resources/experiment 1/metrics/R2/incidence/Retinopatía proliferativa (INC).xlsx
+++ b/resources/experiment 1/metrics/R2/incidence/Retinopatía proliferativa (INC).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9994825667215639</v>
+        <v>0.9994150917987699</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9994836421282741</v>
+        <v>0.9993859305186326</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9994836421282741</v>
+        <v>0.9983299113817082</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9995142466329257</v>
+        <v>0.9994282868642346</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9995142466329257</v>
+        <v>0.9994351815338799</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9995142466329257</v>
+        <v>0.9981299281825177</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9968499010142026</v>
+        <v>0.9994905602732072</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9968374751790782</v>
+        <v>0.9994696434829643</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9968374751790782</v>
+        <v>0.9995420842366699</v>
       </c>
     </row>
   </sheetData>
